--- a/biology/Mycologie/Gloeophyllales/Gloeophyllales.xlsx
+++ b/biology/Mycologie/Gloeophyllales/Gloeophyllales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gloeophyllales sont un ordre de champignons basidiomycètes de la classe des Agaricomycetes. 
 </t>
@@ -511,10 +523,12 @@
           <t>Écologie forestière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'histoire évolutive de ces champignons montre que certaines espèces sont devenues des agents de pourriture brune du bois : plusieurs Gloeophyllales ont développé avec les Polyporales et les Boletales, un mécanisme de dépolymérisation de la cellulose, via la réaction de Fenton, en produisant des radicaux libres hydroxyles qui peuvent extraire les atomes d'hydrogène appartenant aux liaisons osidiques de la cellulose[1],[2]. 
-Agents de dégradation du bois, ces champignons sont redoutés par les sylviculteurs car leur présence sur des parties mortes d'un arbre signifie toujours la mort complète du ligneux dans un délai plus ou moins bref (généralement quelques mois à quelques années après leur apparition)[3]. Parallèlement, ils sont des indicateurs de gestion durable des forêts. Ils constituent en effet des micro-habitats riches en biodiversité et figurent parmi les principaux recycleurs du carbone organique dans les écosystèmes terrestres[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire évolutive de ces champignons montre que certaines espèces sont devenues des agents de pourriture brune du bois : plusieurs Gloeophyllales ont développé avec les Polyporales et les Boletales, un mécanisme de dépolymérisation de la cellulose, via la réaction de Fenton, en produisant des radicaux libres hydroxyles qui peuvent extraire les atomes d'hydrogène appartenant aux liaisons osidiques de la cellulose,. 
+Agents de dégradation du bois, ces champignons sont redoutés par les sylviculteurs car leur présence sur des parties mortes d'un arbre signifie toujours la mort complète du ligneux dans un délai plus ou moins bref (généralement quelques mois à quelques années après leur apparition). Parallèlement, ils sont des indicateurs de gestion durable des forêts. Ils constituent en effet des micro-habitats riches en biodiversité et figurent parmi les principaux recycleurs du carbone organique dans les écosystèmes terrestres.
 </t>
         </is>
       </c>
@@ -543,11 +557,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L’ordre des Gloeophyllales comporte la famille des Gloeophyllaceae et un genre incertae sedis. 
-Famille des Gloeophyllaceae
-genre Boreostereum
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ordre des Gloeophyllales comporte la famille des Gloeophyllaceae et un genre incertae sedis. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gloeophyllales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gloeophyllales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille des Gloeophyllaceae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>genre Boreostereum
 Boreostereum borbonicum
 Boreostereum radiatum
 Boreostereum sulphuratum
@@ -562,44 +613,80 @@
 genre Mycothele
 Mycothele disciformis
 genre Veluticeps
-10 espèces
-Famille non précisée
-genre Pileodon
+10 espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gloeophyllales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gloeophyllales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Famille non précisée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>genre Pileodon
 Pileodon megasporus
 Pileodon philippinensis</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Gloeophyllales</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gloeophyllales</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 octobre 2013)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 octobre 2013) :
 famille Gloeophyllaceae
 famille des Gleophylalles incertae sedis
-Selon NCBI  (29 octobre 2013)[6] :
+Selon NCBI  (29 octobre 2013) :
 famille des Gloeophyllaceae
 genre Gloeophyllum
 genre Griseoporia
